--- a/dev-docs/安卓端开发计划表.xlsx
+++ b/dev-docs/安卓端开发计划表.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\SecondGrade\Last\实训\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\docs\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB914A3-0DF6-4FEA-883D-28C31C45DFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233810F2-670A-4200-BFC2-1858827D0C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{536154F8-2AFE-4EF1-B29A-F7F983DB8E71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{536154F8-2AFE-4EF1-B29A-F7F983DB8E71}"/>
   </bookViews>
   <sheets>
     <sheet name="附件2 编码开发计划表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>结束时间</t>
   </si>
@@ -243,6 +243,33 @@
       <t>项目编码计划表（2周）</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓权限</t>
+  </si>
+  <si>
+    <t>安卓权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹晶田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,80 +542,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,172 +933,218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C10EFDB-10FB-467C-A80E-A2E0AC54B2B8}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7.06</v>
+      </c>
+      <c r="I4" s="5">
+        <v>7.12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7.06</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7.12</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7.06</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7.12</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7.06</v>
+      </c>
+      <c r="I7" s="5">
+        <v>7.12</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1080,11 +1153,11 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1092,18 +1165,18 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1111,18 +1184,18 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="3"/>
@@ -1132,18 +1205,18 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="3"/>
@@ -1152,7 +1225,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1161,29 +1234,29 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="3"/>
@@ -1192,20 +1265,20 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="3"/>
@@ -1213,21 +1286,21 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>

--- a/dev-docs/安卓端开发计划表.xlsx
+++ b/dev-docs/安卓端开发计划表.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\docs\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebstormProjects\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233810F2-670A-4200-BFC2-1858827D0C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{536154F8-2AFE-4EF1-B29A-F7F983DB8E71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="附件2 编码开发计划表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>结束时间</t>
   </si>
@@ -160,10 +159,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>发送高质量图片会挤爆带宽：自动压缩图片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>收发语音消息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -217,14 +212,6 @@
   </si>
   <si>
     <t>其他功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>内置AI</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>在频道内添加ai机器人，通过特定文字的触发，实现与用户的简单互动如成语接龙等</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -271,12 +258,56 @@
     <t>一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>用户恶意发送大量文字，通过js判定文字长度解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘剑宇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层分片发送</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送高质量图片会挤爆带宽：分多次传输，最后拼接</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>js逻辑控制</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置AI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在频道内添加ai机器人，通过特定文字的触发，实现与用户的简单互动如成语接龙等</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语数组过长，影响代码质量，通过导入js文件解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘剑宇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue.js</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -349,6 +380,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -526,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +612,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,6 +656,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C10EFDB-10FB-467C-A80E-A2E0AC54B2B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
@@ -951,60 +1003,60 @@
     <col min="11" max="11" width="15.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
+    <row r="1" spans="1:12" ht="52.5" customHeight="1" thickBot="1">
+      <c r="A1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:12" ht="18" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+    <row r="3" spans="1:12" ht="18" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1014,11 +1066,11 @@
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1031,13 +1083,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5">
         <v>7.06</v>
@@ -1046,12 +1098,12 @@
         <v>7.12</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A5" s="28"/>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1062,13 +1114,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" s="5">
         <v>7.06</v>
@@ -1077,12 +1129,12 @@
         <v>7.12</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A6" s="28"/>
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1093,13 +1145,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H6" s="5">
         <v>7.06</v>
@@ -1108,12 +1160,12 @@
         <v>7.12</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A7" s="17"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1127,10 +1179,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5">
         <v>7.06</v>
@@ -1139,103 +1191,140 @@
         <v>7.12</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="31">
         <v>5</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
+      <c r="E8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16">
+        <v>7.11</v>
+      </c>
+      <c r="I8" s="16">
+        <v>7.12</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16">
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7.11</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16">
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="F10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="15">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7.11</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" ht="79.5" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1244,67 +1333,79 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:12" ht="28.8">
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="57.6">
       <c r="A15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/dev-docs/安卓端开发计划表.xlsx
+++ b/dev-docs/安卓端开发计划表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WebstormProjects\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\repositories\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D8E003-6586-4741-B8B2-4BE19170461C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件2 编码开发计划表" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>结束时间</t>
   </si>
@@ -191,10 +186,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>频道重名：禁止重名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>用户功能</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -302,12 +293,119 @@
     <t>vue.js</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息聊天的主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道列表的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建列表的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vue渲染，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>js维护</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue渲染，js维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> vue渲染，js维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息的动态展示和上移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表的即时渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面布局与展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘剑宇、陈晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王嘉伟、陈晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue渲染列表，js逻辑控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王嘉伟、陈晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态渲染channel表失败：利用set函数更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态渲染channel表失败：利用set函数更新。频道重名：禁止重名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -386,6 +484,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -563,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +720,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,17 +777,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,14 +1102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.77734375" style="1" customWidth="1"/>
@@ -1003,60 +1123,60 @@
     <col min="11" max="11" width="15.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
+    <row r="1" spans="1:12" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1066,11 +1186,11 @@
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1083,13 +1203,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5">
         <v>7.06</v>
@@ -1098,12 +1218,12 @@
         <v>7.12</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1114,13 +1234,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="5">
         <v>7.06</v>
@@ -1129,12 +1249,12 @@
         <v>7.12</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1145,13 +1265,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="5">
         <v>7.06</v>
@@ -1160,12 +1280,12 @@
         <v>7.12</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1179,10 +1299,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5">
         <v>7.06</v>
@@ -1191,227 +1311,351 @@
         <v>7.12</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="37">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="I8" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="37">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="37">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C11" s="17">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="32" t="s">
+      <c r="E11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4</v>
+      </c>
+      <c r="H11" s="16">
+        <v>7.11</v>
+      </c>
+      <c r="I11" s="16">
+        <v>7.12</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="16">
-        <v>4</v>
-      </c>
-      <c r="H8" s="16">
+    </row>
+    <row r="12" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="16">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>7.11</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I12" s="3">
         <v>7.12</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="J12" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="16">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="15">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3">
         <v>7.11</v>
       </c>
-      <c r="I9" s="3">
-        <v>7.12</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="I13" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="15">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3">
-        <v>7.11</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7.13</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" ht="79.5" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.8">
-      <c r="A13" s="19"/>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="57.6">
-      <c r="A15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7.11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="I16" s="3">
+        <v>7.11</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3">
-        <v>5</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="E18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="3">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7.13</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7.14</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A2:A3"/>
@@ -1421,10 +1665,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.35416666666666702" top="0.39305555555555599" bottom="0.31458333333333299" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/dev-docs/安卓端开发计划表.xlsx
+++ b/dev-docs/安卓端开发计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\repositories\p2p-chat-specification\dev-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubDesktop\p2p-chat-specification\dev-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D8E003-6586-4741-B8B2-4BE19170461C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8956BDBA-67DA-47A3-8DFA-51C4934D5DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件2 编码开发计划表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>结束时间</t>
   </si>
@@ -396,6 +396,10 @@
   <si>
     <t>动态渲染channel表失败：利用set函数更新。频道重名：禁止重名</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王嘉伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -735,6 +739,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,9 +785,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1105,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1124,59 +1128,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1186,11 +1190,11 @@
       <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1223,7 +1227,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1258,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1285,7 +1289,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1316,13 +1320,13 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="22">
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1351,10 +1355,10 @@
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="22">
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1383,10 +1387,10 @@
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="22">
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1414,7 +1418,7 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1446,7 +1450,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="16" t="s">
         <v>25</v>
       </c>
@@ -1476,7 +1480,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1510,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1520,13 +1524,21 @@
       <c r="F14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G14" s="3">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7.11</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1558,7 +1570,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
